--- a/medicine/Mort/Décès_en_1918/Décès_en_1918.xlsx
+++ b/medicine/Mort/Décès_en_1918/Décès_en_1918.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1918</t>
+          <t>Décès_en_1918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1918</t>
+          <t>Décès_en_1918</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date inconnue
-Antoine Jean Bail, peintre français (° 8 avril 1830).
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antoine Jean Bail, peintre français (° 8 avril 1830).
 Giuseppe Boschetto, peintre italien (° 1841).
 Procida Bucalossi, compositeur anglais (° 1832).
 Henri Joseph Castaing, peintre français (° 1860).
@@ -538,9 +555,43 @@
 Hasan Tahsin Pacha, officier supérieur de l'armée ottomane et haut fonctionnaire ottoman (° 1845).
 Vassili Perepliotchikov, peintre de paysages et graphiste russe (° 1863).
 1918 ou 1922 :
-Clovis Cazes, peintre français (° 28 octobre 1883).
-Janvier
-3 janvier : Alexandre-Jacques Chantron, peintre français (° 28 janvier 1842).
+Clovis Cazes, peintre français (° 28 octobre 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : Alexandre-Jacques Chantron, peintre français (° 28 janvier 1842).
 7 janvier : Andreï Chingarev, homme politique russe (° 18 août 1869).
 8 janvier : Paul Milliet, peintre décorateur, archéologue et écrivain français (° 6 mars 1844).
 9 janvier : Émile Reynaud, inventeur du dessin animé (° 8 décembre 1844).
@@ -551,18 +602,86 @@
 22 janvier : Gustav Schreck, compositeur et pédagogue allemand (° 8 septembre 1849).
 26 janvier : Joseph Mégard, peintre et graveur suisse (° 16 novembre 1850).
 28 janvier : John McCrae, médecin militaire et poète (° 30 novembre 1872).
-31 janvier : Léon Houa, coureur cycliste belge (° 8 novembre 1867).
-Février
-1er février : Francisco do Rego Barros Barreto, ingénieur et homme politique brésilien (° 23 décembre 1828).
+31 janvier : Léon Houa, coureur cycliste belge (° 8 novembre 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Francisco do Rego Barros Barreto, ingénieur et homme politique brésilien (° 23 décembre 1828).
 2 février : Alphonse Lévy, peintre, illustrateur et caricaturiste français (° 8 janvier 1843).
 6 février : Gustav Klimt, peintre autrichien (° 14 juillet 1862).
 10 février : Abdülhamid II, sultan ottoman (1876-1909) (° 21 septembre 1842).
 15 février : Pedro Marqués, compositeur espagnol (° 20 mai 1843).
 22 février : Paul Chardin, peintre et illustrateur français (° 20 août 1833).
 28 février : Nikolaï Doubovskoï, peintre de paysages russe (° 17 décembre 1859).
-? février : Lascăr Vorel, peintre roumain d'origine tchèque (° 19 août 1879).
-Mars
-1er mars :
+? février : Lascăr Vorel, peintre roumain d'origine tchèque (° 19 août 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars :
 Harlan Carey Brewster, homme politique canadien (° 10 novembre 1870).
 Emil Sjögren, compositeur suédois (° 16 juin 1853).
 6 mars : John Redmond, homme politique britannique (irlandais) (° 1er septembre 1856).
@@ -572,18 +691,86 @@
 23 mars : Théo Ysaÿe, compositeur et pianiste belge (° 2 mars 1865).
 25 mars : Claude Debussy, compositeur français (° 22 août 1862).
 26 mars : César Cui, compositeur russe (° 18 janvier 1835).
-27 mars : Władysław Ślewiński, peintre polonais (° 1er juin 1856).
-Avril
-1er avril :  Alexandre Rachmiel, peintre français (° 13 novembre 1835).
+27 mars : Władysław Ślewiński, peintre polonais (° 1er juin 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :  Alexandre Rachmiel, peintre français (° 13 novembre 1835).
 5 avril : Hermann Kalbfuss, historien, philosophe et dessinateur allemand (° 19 février 1887).
 16 avril : Marcel Lehuédé, sculpteur français (° 21 janvier 1886).
 21 avril : Manfred von Richthofen, dit le Baron Rouge, as aérien allemand (° 2 mai 1892).
 23 avril : Paul Sébillot, ethnologue français (° 6 février 1843).
 24 avril : Louis Darragon, coureur cycliste français (° 6 février 1883).
 26 avril : Jean Le Roy, poète français (° 28 novembre 1894).
-28 avril : Gavrilo Princip, anarchiste serbe (° 13 juillet 1894).
-Mai
-1er mai : Grove Karl Gilbert, géologue américain (° 6 mai 1843).
+28 avril : Gavrilo Princip, anarchiste serbe (° 13 juillet 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Grove Karl Gilbert, géologue américain (° 6 mai 1843).
 2 mai : Henri Kling, corniste et compositeur français (° 14 février 1842).
 17 mai : Gaston Brun, peintre français (° 2 janvier 1873).
 18 mai : Toivo Kuula, compositeur et chef d'orchestre finlandais (° 7 juillet 1883).
@@ -593,40 +780,210 @@
 22 mai : Fritz Seitz, compositeur, violoniste et chef d'orchestre allemand (°12 juin 1848).
 23 mai : Maxime Maufra, peintre, graveur et lithographe français (°17 mai 1861).
 28 mai : Bernhard Wiegandt, peintre allemand (° 13 mai 1851).
-? mai : Ali Aaltonen, homme politique et journaliste finlandais (° 2 août 1884).
-Juin
-6 juin : Juan Sala, peintre espagnol (° 1869).
+? mai : Ali Aaltonen, homme politique et journaliste finlandais (° 2 août 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6 juin : Juan Sala, peintre espagnol (° 1869).
 9 juin : Joseph Kaeble, soldat canadien (° 5 mai 1892).
 14 juin : Karl Raupp, peintre allemand (° 2 mars 1837).
 19 juin : Francesco Baracca, as de l'aviation italien (° 9 mai 1888).
-27 juin : André Gouirand, peintre, musicien et écrivain critique d'art français (° 30 mai 1855).
-Juillet
-9 juillet :
+27 juin : André Gouirand, peintre, musicien et écrivain critique d'art français (° 30 mai 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9 juillet :
 Marie Duhem, peintre française (° 18 mars 1871).
 Hans am Ende, peintre allemand (° 31 décembre 1864).
 10 juillet : Henri Rieunier, amiral, ministre, député, pionnier de la Chine et du Japon (° 6 mars 1833).
 11 juillet : Léon-Pamphile Le May, romancier, poète, conteur, traducteur, bibliothécaire et avocat québécois (° 5 janvier 1837).
 17 juillet : Nicolas II de Russie et sa famille (° 18 mai 1868).
 24 juillet : Charles Maurice Cabart-Danneville, homme politique français (° 24 juin 1846).
-31 juillet : Émile Eisman Semenowsky, peintre français et polonais (° 19 septembre 1853).
-Août
-2 août : Martin Krause, pianiste concertiste et compositeur allemand (° 17 juin 1853).
+31 juillet : Émile Eisman Semenowsky, peintre français et polonais (° 19 septembre 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Martin Krause, pianiste concertiste et compositeur allemand (° 17 juin 1853).
 3 août : Albert Hahn, peintre, dessinateur, caricaturiste et affichiste néerlandais (° 17 mars 1877).
 15 août : Heinrich Köselitz, compositeur allemand (° 10 janvier 1854).
 18 août : Roger-Joseph Jourdain, peintre et illustrateur français (° 11 décembre 1845).
 24 août : Henriette Moriamé, résistante française lors de la Première Guerre mondiale (° 22 mars 1881).
 28 août : Louis Eugène Baille, peintre français (° 1860).
-29 août : Juliette Dubufe-Wehrlé, peintre et sculptrice française (° 4 mars 1879).
-Septembre
-6 septembre : Elizabeth Yates, femme politique néo-zélandaise (° dans les années 1840).
+29 août : Juliette Dubufe-Wehrlé, peintre et sculptrice française (° 4 mars 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6 septembre : Elizabeth Yates, femme politique néo-zélandaise (° dans les années 1840).
 7 septembre : Émile de Lalieux de La Rocq, homme politique belge (° 25 novembre 1862).
 9 septembre : Louis Abel-Truchet, peintre et affichiste  français (° 29 décembre 1857).
 11 septembre : Marius Guindon, peintre et sculpteur français (° 17 octobre 1831).
 12 septembre : Francesc de Paula Sànchez i Cavagnach, compositeur catalan (° 1845).
 20 septembre : Maria Teresa Dudzik, religieuse, fondatrice, vénérable (° 30 août 1860).
-28 septembre : Georg Simmel, philosophe et sociologue allemand (° 1er mars 1858).
-Octobre
-2 octobre : Émile Moselly, écrivain régionaliste français, prix Goncourt 1907 (° 12 août 1870).
+28 septembre : Georg Simmel, philosophe et sociologue allemand (° 1er mars 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Émile Moselly, écrivain régionaliste français, prix Goncourt 1907 (° 12 août 1870).
 4 octobre : Clément Gontier, peintre français (° 15 mai 1876).
 5 octobre : Roland Garros, pionnier de l'aviation français (° 6 octobre 1888).
 6 octobre : Alfred Plauzeau, peintre français (° 13 mars 1875).
@@ -647,9 +1004,43 @@
 29 octobre :
 Maria Gugelberg von Moos, botaniste et illustratrice botanique suisse (° 6 février 1836).
 Rudolf Tobias, compositeur et organiste estonien (° 29 mai 1873).
-31 octobre : Egon Schiele, peintre autrichien (° 12 juin 1890).
-Novembre
-3 novembre : Alexandre Liapounov, mathématicien russe (° 6 juin 1857).
+31 octobre : Egon Schiele, peintre autrichien (° 12 juin 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre : Alexandre Liapounov, mathématicien russe (° 6 juin 1857).
 4 novembre : Andrew Dickson White, historien, homme politique, diplomate et professeur d’université américain (° 7 novembre 1832).
 7 novembre : Olga Rozanova, peintre et sculptrice russe (° 1886).
 9 novembre : Guillaume Apollinaire, poète français (° 26 août 1880).
@@ -660,9 +1051,43 @@
 Michel Luizet, astronome français (° 26 mars 1866).
 26 novembre : Henri Courselles-Dumont, peintre et graveur français (° 31 juillet 1856).
 27 novembre : Bohumil Kubišta, peintre austro-hongrois puis tchécoslovaque (° 21 août 1884).
-? novembre : Arthur Cravan : écrivain et boxeur d'origine britannique (° 22 mai 1887).
-Décembre
-1er décembre : Félix de Vuillefroy-Cassini, artiste et entomologiste français (° 2 mars 1841).
+? novembre : Arthur Cravan : écrivain et boxeur d'origine britannique (° 22 mai 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1918</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Félix de Vuillefroy-Cassini, artiste et entomologiste français (° 2 mars 1841).
 2 décembre :
 Louis Fidrit, peintre français (° 10 mai 1884).
 Edmond Rostand, écrivain, dramaturge, poète et essayiste français (° 1er avril 1868).
